--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pf4-Procr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pf4-Procr.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H2">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I2">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J2">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.106278333333333</v>
+        <v>13.061181</v>
       </c>
       <c r="N2">
-        <v>18.318835</v>
+        <v>39.183543</v>
       </c>
       <c r="O2">
-        <v>0.2867375167293102</v>
+        <v>0.5073804293197572</v>
       </c>
       <c r="P2">
-        <v>0.2867375167293102</v>
+        <v>0.5073804293197572</v>
       </c>
       <c r="Q2">
-        <v>1.715176237641111</v>
+        <v>11.848698506589</v>
       </c>
       <c r="R2">
-        <v>15.43658613877</v>
+        <v>106.638286559301</v>
       </c>
       <c r="S2">
-        <v>0.0003376971713172632</v>
+        <v>0.0006946362101078369</v>
       </c>
       <c r="T2">
-        <v>0.0003376971713172632</v>
+        <v>0.0006946362101078369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H3">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I3">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J3">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>21.681841</v>
       </c>
       <c r="O3">
-        <v>0.3393773264762603</v>
+        <v>0.2807541368840157</v>
       </c>
       <c r="P3">
-        <v>0.3393773264762603</v>
+        <v>0.2807541368840156</v>
       </c>
       <c r="Q3">
-        <v>2.030051500082444</v>
+        <v>6.556364672709666</v>
       </c>
       <c r="R3">
-        <v>18.270463500742</v>
+        <v>59.00728205438699</v>
       </c>
       <c r="S3">
-        <v>0.0003996922497883005</v>
+        <v>0.0003843703429371028</v>
       </c>
       <c r="T3">
-        <v>0.0003996922497883005</v>
+        <v>0.0003843703429371027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H4">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I4">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J4">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.530011666666667</v>
+        <v>0.7321823333333333</v>
       </c>
       <c r="N4">
-        <v>4.590035</v>
+        <v>2.196547</v>
       </c>
       <c r="O4">
-        <v>0.07184601191072575</v>
+        <v>0.02844267961886511</v>
       </c>
       <c r="P4">
-        <v>0.07184601191072575</v>
+        <v>0.02844267961886511</v>
       </c>
       <c r="Q4">
-        <v>0.4297608970188889</v>
+        <v>0.6642131151476666</v>
       </c>
       <c r="R4">
-        <v>3.86784807317</v>
+        <v>5.977918036328999</v>
       </c>
       <c r="S4">
-        <v>8.461465129999995E-05</v>
+        <v>3.893984480688076E-05</v>
       </c>
       <c r="T4">
-        <v>8.461465129999995E-05</v>
+        <v>3.893984480688076E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H5">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I5">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J5">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.981182666666666</v>
+        <v>2.708231</v>
       </c>
       <c r="N5">
-        <v>14.943548</v>
+        <v>8.124693000000001</v>
       </c>
       <c r="O5">
-        <v>0.2339054773213062</v>
+        <v>0.1052051424352113</v>
       </c>
       <c r="P5">
-        <v>0.2339054773213062</v>
+        <v>0.1052051424352113</v>
       </c>
       <c r="Q5">
-        <v>1.399151116086222</v>
+        <v>2.456823208039</v>
       </c>
       <c r="R5">
-        <v>12.592360044776</v>
+        <v>22.111408872351</v>
       </c>
       <c r="S5">
-        <v>0.0002754756996852554</v>
+        <v>0.0001440325586129277</v>
       </c>
       <c r="T5">
-        <v>0.0002754756996852554</v>
+        <v>0.0001440325586129277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.907169</v>
+      </c>
+      <c r="H6">
+        <v>2.721507</v>
+      </c>
+      <c r="I6">
+        <v>0.001369063862079057</v>
+      </c>
+      <c r="J6">
+        <v>0.001369063862079057</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.2808873333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.842662</v>
-      </c>
-      <c r="I6">
-        <v>0.001177722312619665</v>
-      </c>
-      <c r="J6">
-        <v>0.001177722312619665</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.788405</v>
+        <v>1.193984</v>
       </c>
       <c r="N6">
-        <v>2.365215</v>
+        <v>3.581952</v>
       </c>
       <c r="O6">
-        <v>0.03702177980373291</v>
+        <v>0.04638203195568005</v>
       </c>
       <c r="P6">
-        <v>0.03702177980373291</v>
+        <v>0.04638203195568005</v>
       </c>
       <c r="Q6">
-        <v>0.2214529780366667</v>
+        <v>1.083145271296</v>
       </c>
       <c r="R6">
-        <v>1.99307680233</v>
+        <v>9.748307441664</v>
       </c>
       <c r="S6">
-        <v>4.360137612774834E-05</v>
+        <v>6.349996380031759E-05</v>
       </c>
       <c r="T6">
-        <v>4.360137612774834E-05</v>
+        <v>6.349996380031757E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H7">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I7">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J7">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6625496666666666</v>
+        <v>0.8195236666666667</v>
       </c>
       <c r="N7">
-        <v>1.987649</v>
+        <v>2.458571</v>
       </c>
       <c r="O7">
-        <v>0.0311118877586646</v>
+        <v>0.03183557978647068</v>
       </c>
       <c r="P7">
-        <v>0.0311118877586646</v>
+        <v>0.03183557978647068</v>
       </c>
       <c r="Q7">
-        <v>0.1861018090708889</v>
+        <v>0.7434464651663333</v>
       </c>
       <c r="R7">
-        <v>1.674916281638</v>
+        <v>6.691018186497</v>
       </c>
       <c r="S7">
-        <v>3.664116440109794E-05</v>
+        <v>4.358494181399152E-05</v>
       </c>
       <c r="T7">
-        <v>3.664116440109794E-05</v>
+        <v>4.358494181399152E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>5.647565</v>
       </c>
       <c r="I8">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J8">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.106278333333333</v>
+        <v>13.061181</v>
       </c>
       <c r="N8">
-        <v>18.318835</v>
+        <v>39.183543</v>
       </c>
       <c r="O8">
-        <v>0.2867375167293102</v>
+        <v>0.5073804293197572</v>
       </c>
       <c r="P8">
-        <v>0.2867375167293102</v>
+        <v>0.5073804293197572</v>
       </c>
       <c r="Q8">
-        <v>11.49520126519722</v>
+        <v>24.587956224755</v>
       </c>
       <c r="R8">
-        <v>103.456811386775</v>
+        <v>221.291606022795</v>
       </c>
       <c r="S8">
-        <v>0.002263264185794992</v>
+        <v>0.001441481924513759</v>
       </c>
       <c r="T8">
-        <v>0.002263264185794992</v>
+        <v>0.001441481924513759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>5.647565</v>
       </c>
       <c r="I9">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J9">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>21.681841</v>
       </c>
       <c r="O9">
-        <v>0.3393773264762603</v>
+        <v>0.2807541368840157</v>
       </c>
       <c r="P9">
-        <v>0.3393773264762603</v>
+        <v>0.2807541368840156</v>
       </c>
       <c r="Q9">
         <v>13.60551181857389</v>
@@ -1013,10 +1013,10 @@
         <v>122.449606367165</v>
       </c>
       <c r="S9">
-        <v>0.002678758459116067</v>
+        <v>0.0007976303187203188</v>
       </c>
       <c r="T9">
-        <v>0.002678758459116067</v>
+        <v>0.0007976303187203188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>5.647565</v>
       </c>
       <c r="I10">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J10">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.530011666666667</v>
+        <v>0.7321823333333333</v>
       </c>
       <c r="N10">
-        <v>4.590035</v>
+        <v>2.196547</v>
       </c>
       <c r="O10">
-        <v>0.07184601191072575</v>
+        <v>0.02844267961886511</v>
       </c>
       <c r="P10">
-        <v>0.07184601191072575</v>
+        <v>0.02844267961886511</v>
       </c>
       <c r="Q10">
-        <v>2.880280112752778</v>
+        <v>1.378349106450556</v>
       </c>
       <c r="R10">
-        <v>25.922521014775</v>
+        <v>12.405141958055</v>
       </c>
       <c r="S10">
-        <v>0.0005670918389212807</v>
+        <v>8.080644460468832E-05</v>
       </c>
       <c r="T10">
-        <v>0.0005670918389212807</v>
+        <v>8.080644460468834E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>5.647565</v>
       </c>
       <c r="I11">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J11">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.981182666666666</v>
+        <v>2.708231</v>
       </c>
       <c r="N11">
-        <v>14.943548</v>
+        <v>8.124693000000001</v>
       </c>
       <c r="O11">
-        <v>0.2339054773213062</v>
+        <v>0.1052051424352113</v>
       </c>
       <c r="P11">
-        <v>0.2339054773213062</v>
+        <v>0.1052051424352113</v>
       </c>
       <c r="Q11">
-        <v>9.377184295624444</v>
+        <v>5.098303535838333</v>
       </c>
       <c r="R11">
-        <v>84.39465866062</v>
+        <v>45.88473182254501</v>
       </c>
       <c r="S11">
-        <v>0.001846252613613714</v>
+        <v>0.0002988907384338232</v>
       </c>
       <c r="T11">
-        <v>0.001846252613613714</v>
+        <v>0.0002988907384338232</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>5.647565</v>
       </c>
       <c r="I12">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J12">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.788405</v>
+        <v>1.193984</v>
       </c>
       <c r="N12">
-        <v>2.365215</v>
+        <v>3.581952</v>
       </c>
       <c r="O12">
-        <v>0.03702177980373291</v>
+        <v>0.04638203195568005</v>
       </c>
       <c r="P12">
-        <v>0.03702177980373291</v>
+        <v>0.04638203195568005</v>
       </c>
       <c r="Q12">
-        <v>1.484189494608333</v>
+        <v>2.247700749653334</v>
       </c>
       <c r="R12">
-        <v>13.357705451475</v>
+        <v>20.22930674688</v>
       </c>
       <c r="S12">
-        <v>0.0002922187137558204</v>
+        <v>0.0001317726440019962</v>
       </c>
       <c r="T12">
-        <v>0.0002922187137558204</v>
+        <v>0.0001317726440019962</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>5.647565</v>
       </c>
       <c r="I13">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J13">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6625496666666666</v>
+        <v>0.8195236666666667</v>
       </c>
       <c r="N13">
-        <v>1.987649</v>
+        <v>2.458571</v>
       </c>
       <c r="O13">
-        <v>0.0311118877586646</v>
+        <v>0.03183557978647068</v>
       </c>
       <c r="P13">
-        <v>0.0311118877586646</v>
+        <v>0.03183557978647068</v>
       </c>
       <c r="Q13">
-        <v>1.247264102742778</v>
+        <v>1.542771058846111</v>
       </c>
       <c r="R13">
-        <v>11.225376924685</v>
+        <v>13.884939529615</v>
       </c>
       <c r="S13">
-        <v>0.0002455710090533175</v>
+        <v>9.044576843481755E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002455710090533175</v>
+        <v>9.044576843481756E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H14">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I14">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J14">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.106278333333333</v>
+        <v>13.061181</v>
       </c>
       <c r="N14">
-        <v>18.318835</v>
+        <v>39.183543</v>
       </c>
       <c r="O14">
-        <v>0.2867375167293102</v>
+        <v>0.5073804293197572</v>
       </c>
       <c r="P14">
-        <v>0.2867375167293102</v>
+        <v>0.5073804293197572</v>
       </c>
       <c r="Q14">
-        <v>634.037429835885</v>
+        <v>1100.579932679465</v>
       </c>
       <c r="R14">
-        <v>5706.336868522965</v>
+        <v>9905.219394115185</v>
       </c>
       <c r="S14">
-        <v>0.1248341959653756</v>
+        <v>0.06452208003537822</v>
       </c>
       <c r="T14">
-        <v>0.1248341959653756</v>
+        <v>0.06452208003537822</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H15">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I15">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J15">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>21.681841</v>
       </c>
       <c r="O15">
-        <v>0.3393773264762603</v>
+        <v>0.2807541368840157</v>
       </c>
       <c r="P15">
-        <v>0.3393773264762603</v>
+        <v>0.2807541368840156</v>
       </c>
       <c r="Q15">
-        <v>750.4352073562709</v>
+        <v>608.9954425036773</v>
       </c>
       <c r="R15">
-        <v>6753.916866206438</v>
+        <v>5480.958982533095</v>
       </c>
       <c r="S15">
-        <v>0.1477514911993102</v>
+        <v>0.03570267957433929</v>
       </c>
       <c r="T15">
-        <v>0.1477514911993102</v>
+        <v>0.03570267957433928</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H16">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I16">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J16">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.530011666666667</v>
+        <v>0.7321823333333333</v>
       </c>
       <c r="N16">
-        <v>4.590035</v>
+        <v>2.196547</v>
       </c>
       <c r="O16">
-        <v>0.07184601191072575</v>
+        <v>0.02844267961886511</v>
       </c>
       <c r="P16">
-        <v>0.07184601191072575</v>
+        <v>0.02844267961886511</v>
       </c>
       <c r="Q16">
-        <v>158.866761683085</v>
+        <v>61.69619601237389</v>
       </c>
       <c r="R16">
-        <v>1429.800855147765</v>
+        <v>555.265764111365</v>
       </c>
       <c r="S16">
-        <v>0.03127891750091821</v>
+        <v>0.003616972087885721</v>
       </c>
       <c r="T16">
-        <v>0.03127891750091821</v>
+        <v>0.003616972087885721</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H17">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I17">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J17">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.981182666666666</v>
+        <v>2.708231</v>
       </c>
       <c r="N17">
-        <v>14.943548</v>
+        <v>8.124693000000001</v>
       </c>
       <c r="O17">
-        <v>0.2339054773213062</v>
+        <v>0.1052051424352113</v>
       </c>
       <c r="P17">
-        <v>0.2339054773213062</v>
+        <v>0.1052051424352113</v>
       </c>
       <c r="Q17">
-        <v>517.2145917875879</v>
+        <v>228.2048378060484</v>
       </c>
       <c r="R17">
-        <v>4654.931326088292</v>
+        <v>2053.843540254435</v>
       </c>
       <c r="S17">
-        <v>0.1018332115251869</v>
+        <v>0.01337862918646426</v>
       </c>
       <c r="T17">
-        <v>0.1018332115251869</v>
+        <v>0.01337862918646426</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H18">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I18">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J18">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.788405</v>
+        <v>1.193984</v>
       </c>
       <c r="N18">
-        <v>2.365215</v>
+        <v>3.581952</v>
       </c>
       <c r="O18">
-        <v>0.03702177980373291</v>
+        <v>0.04638203195568005</v>
       </c>
       <c r="P18">
-        <v>0.03702177980373291</v>
+        <v>0.04638203195568005</v>
       </c>
       <c r="Q18">
-        <v>81.863002729665</v>
+        <v>100.6091891950934</v>
       </c>
       <c r="R18">
-        <v>736.767024566985</v>
+        <v>905.4827027558401</v>
       </c>
       <c r="S18">
-        <v>0.01611782151049703</v>
+        <v>0.005898266872571559</v>
       </c>
       <c r="T18">
-        <v>0.01611782151049703</v>
+        <v>0.005898266872571558</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H19">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I19">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J19">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6625496666666666</v>
+        <v>0.8195236666666667</v>
       </c>
       <c r="N19">
-        <v>1.987649</v>
+        <v>2.458571</v>
       </c>
       <c r="O19">
-        <v>0.0311118877586646</v>
+        <v>0.03183557978647068</v>
       </c>
       <c r="P19">
-        <v>0.0311118877586646</v>
+        <v>0.03183557978647068</v>
       </c>
       <c r="Q19">
-        <v>68.79497868591899</v>
+        <v>69.05587648538278</v>
       </c>
       <c r="R19">
-        <v>619.1548081732709</v>
+        <v>621.502888368445</v>
       </c>
       <c r="S19">
-        <v>0.01354488780407612</v>
+        <v>0.004048437244040435</v>
       </c>
       <c r="T19">
-        <v>0.01354488780407613</v>
+        <v>0.004048437244040435</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H20">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I20">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J20">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.106278333333333</v>
+        <v>13.061181</v>
       </c>
       <c r="N20">
-        <v>18.318835</v>
+        <v>39.183543</v>
       </c>
       <c r="O20">
-        <v>0.2867375167293102</v>
+        <v>0.5073804293197572</v>
       </c>
       <c r="P20">
-        <v>0.2867375167293102</v>
+        <v>0.5073804293197572</v>
       </c>
       <c r="Q20">
-        <v>0.8457785765238889</v>
+        <v>3.197155068723</v>
       </c>
       <c r="R20">
-        <v>7.612007188714999</v>
+        <v>28.774395618507</v>
       </c>
       <c r="S20">
-        <v>0.0001665234315778937</v>
+        <v>0.0001874349050935676</v>
       </c>
       <c r="T20">
-        <v>0.0001665234315778937</v>
+        <v>0.0001874349050935676</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H21">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I21">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J21">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>21.681841</v>
       </c>
       <c r="O21">
-        <v>0.3393773264762603</v>
+        <v>0.2807541368840157</v>
       </c>
       <c r="P21">
-        <v>0.3393773264762603</v>
+        <v>0.2807541368840156</v>
       </c>
       <c r="Q21">
-        <v>1.001048189876556</v>
+        <v>1.769115361834333</v>
       </c>
       <c r="R21">
-        <v>9.009433708888999</v>
+        <v>15.922038256509</v>
       </c>
       <c r="S21">
-        <v>0.0001970941146773946</v>
+        <v>0.000103715322784589</v>
       </c>
       <c r="T21">
-        <v>0.0001970941146773946</v>
+        <v>0.000103715322784589</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H22">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I22">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J22">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.530011666666667</v>
+        <v>0.7321823333333333</v>
       </c>
       <c r="N22">
-        <v>4.590035</v>
+        <v>2.196547</v>
       </c>
       <c r="O22">
-        <v>0.07184601191072575</v>
+        <v>0.02844267961886511</v>
       </c>
       <c r="P22">
-        <v>0.07184601191072575</v>
+        <v>0.02844267961886511</v>
       </c>
       <c r="Q22">
-        <v>0.2119214059461111</v>
+        <v>0.1792257881003333</v>
       </c>
       <c r="R22">
-        <v>1.907292653515</v>
+        <v>1.613032092903</v>
       </c>
       <c r="S22">
-        <v>4.172472645027031E-05</v>
+        <v>1.050720651980247E-05</v>
       </c>
       <c r="T22">
-        <v>4.172472645027031E-05</v>
+        <v>1.050720651980247E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H23">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I23">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J23">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.981182666666666</v>
+        <v>2.708231</v>
       </c>
       <c r="N23">
-        <v>14.943548</v>
+        <v>8.124693000000001</v>
       </c>
       <c r="O23">
-        <v>0.2339054773213062</v>
+        <v>0.1052051424352113</v>
       </c>
       <c r="P23">
-        <v>0.2339054773213062</v>
+        <v>0.1052051424352113</v>
       </c>
       <c r="Q23">
-        <v>0.6899419507657777</v>
+        <v>0.6629289088729999</v>
       </c>
       <c r="R23">
-        <v>6.209477556891999</v>
+        <v>5.966360179856999</v>
       </c>
       <c r="S23">
-        <v>0.0001358411106879324</v>
+        <v>3.886455753552897E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001358411106879324</v>
+        <v>3.886455753552896E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H24">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I24">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J24">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.788405</v>
+        <v>1.193984</v>
       </c>
       <c r="N24">
-        <v>2.365215</v>
+        <v>3.581952</v>
       </c>
       <c r="O24">
-        <v>0.03702177980373291</v>
+        <v>0.04638203195568005</v>
       </c>
       <c r="P24">
-        <v>0.03702177980373291</v>
+        <v>0.04638203195568005</v>
       </c>
       <c r="Q24">
-        <v>0.1092017137483333</v>
+        <v>0.292266985472</v>
       </c>
       <c r="R24">
-        <v>0.982815423735</v>
+        <v>2.630402869248</v>
       </c>
       <c r="S24">
-        <v>2.150047850856826E-05</v>
+        <v>1.713430644007141E-05</v>
       </c>
       <c r="T24">
-        <v>2.150047850856826E-05</v>
+        <v>1.71343064400714E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H25">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I25">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J25">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6625496666666666</v>
+        <v>0.8195236666666667</v>
       </c>
       <c r="N25">
-        <v>1.987649</v>
+        <v>2.458571</v>
       </c>
       <c r="O25">
-        <v>0.0311118877586646</v>
+        <v>0.03183557978647068</v>
       </c>
       <c r="P25">
-        <v>0.0311118877586646</v>
+        <v>0.03183557978647068</v>
       </c>
       <c r="Q25">
-        <v>0.0917695334801111</v>
+        <v>0.2006054616976666</v>
       </c>
       <c r="R25">
-        <v>0.8259258013209999</v>
+        <v>1.805449155279</v>
       </c>
       <c r="S25">
-        <v>1.806829595071788E-05</v>
+        <v>1.176060118021481E-05</v>
       </c>
       <c r="T25">
-        <v>1.806829595071788E-05</v>
+        <v>1.176060118021481E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H26">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I26">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J26">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.106278333333333</v>
+        <v>13.061181</v>
       </c>
       <c r="N26">
-        <v>18.318835</v>
+        <v>39.183543</v>
       </c>
       <c r="O26">
-        <v>0.2867375167293102</v>
+        <v>0.5073804293197572</v>
       </c>
       <c r="P26">
-        <v>0.2867375167293102</v>
+        <v>0.5073804293197572</v>
       </c>
       <c r="Q26">
-        <v>419.2303818594978</v>
+        <v>820.2195883717779</v>
       </c>
       <c r="R26">
-        <v>3773.07343673548</v>
+        <v>7381.976295346002</v>
       </c>
       <c r="S26">
-        <v>0.08254132198036648</v>
+        <v>0.04808580672433724</v>
       </c>
       <c r="T26">
-        <v>0.08254132198036648</v>
+        <v>0.04808580672433724</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H27">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I27">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J27">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>21.681841</v>
       </c>
       <c r="O27">
-        <v>0.3393773264762603</v>
+        <v>0.2807541368840157</v>
       </c>
       <c r="P27">
-        <v>0.3393773264762603</v>
+        <v>0.2807541368840156</v>
       </c>
       <c r="Q27">
-        <v>496.1934796534231</v>
+        <v>453.8607113747304</v>
       </c>
       <c r="R27">
-        <v>4465.741316880808</v>
+        <v>4084.746402372574</v>
       </c>
       <c r="S27">
-        <v>0.09769441228703196</v>
+        <v>0.02660782399778935</v>
       </c>
       <c r="T27">
-        <v>0.09769441228703196</v>
+        <v>0.02660782399778934</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H28">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I28">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J28">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.530011666666667</v>
+        <v>0.7321823333333333</v>
       </c>
       <c r="N28">
-        <v>4.590035</v>
+        <v>2.196547</v>
       </c>
       <c r="O28">
-        <v>0.07184601191072575</v>
+        <v>0.02844267961886511</v>
       </c>
       <c r="P28">
-        <v>0.07184601191072575</v>
+        <v>0.02844267961886511</v>
       </c>
       <c r="Q28">
-        <v>105.0439138623422</v>
+        <v>45.97978483413977</v>
       </c>
       <c r="R28">
-        <v>945.3952247610802</v>
+        <v>413.8180635072579</v>
       </c>
       <c r="S28">
-        <v>0.0206818586900396</v>
+        <v>0.002695589178929602</v>
       </c>
       <c r="T28">
-        <v>0.0206818586900396</v>
+        <v>0.002695589178929602</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H29">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I29">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J29">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.981182666666666</v>
+        <v>2.708231</v>
       </c>
       <c r="N29">
-        <v>14.943548</v>
+        <v>8.124693000000001</v>
       </c>
       <c r="O29">
-        <v>0.2339054773213062</v>
+        <v>0.1052051424352113</v>
       </c>
       <c r="P29">
-        <v>0.2339054773213062</v>
+        <v>0.1052051424352113</v>
       </c>
       <c r="Q29">
-        <v>341.9862308042916</v>
+        <v>170.0722251713447</v>
       </c>
       <c r="R29">
-        <v>3077.876077238624</v>
+        <v>1530.650026542102</v>
       </c>
       <c r="S29">
-        <v>0.06733289573256496</v>
+        <v>0.009970574056883414</v>
       </c>
       <c r="T29">
-        <v>0.06733289573256496</v>
+        <v>0.009970574056883414</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H30">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I30">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J30">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.788405</v>
+        <v>1.193984</v>
       </c>
       <c r="N30">
-        <v>2.365215</v>
+        <v>3.581952</v>
       </c>
       <c r="O30">
-        <v>0.03702177980373291</v>
+        <v>0.04638203195568005</v>
       </c>
       <c r="P30">
-        <v>0.03702177980373291</v>
+        <v>0.04638203195568005</v>
       </c>
       <c r="Q30">
-        <v>54.12844144454667</v>
+        <v>74.98013119965867</v>
       </c>
       <c r="R30">
-        <v>487.15597300092</v>
+        <v>674.821180796928</v>
       </c>
       <c r="S30">
-        <v>0.01065722644850464</v>
+        <v>0.00439574980669444</v>
       </c>
       <c r="T30">
-        <v>0.01065722644850464</v>
+        <v>0.004395749806694439</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H31">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I31">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J31">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.6625496666666666</v>
+        <v>0.8195236666666667</v>
       </c>
       <c r="N31">
-        <v>1.987649</v>
+        <v>2.458571</v>
       </c>
       <c r="O31">
-        <v>0.0311118877586646</v>
+        <v>0.03183557978647068</v>
       </c>
       <c r="P31">
-        <v>0.0311118877586646</v>
+        <v>0.03183557978647068</v>
       </c>
       <c r="Q31">
-        <v>45.48776432959022</v>
+        <v>51.46466958342155</v>
       </c>
       <c r="R31">
-        <v>409.389878966312</v>
+        <v>463.182026250794</v>
       </c>
       <c r="S31">
-        <v>0.008955983068407648</v>
+        <v>0.003017143445248443</v>
       </c>
       <c r="T31">
-        <v>0.008955983068407648</v>
+        <v>0.003017143445248443</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H32">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I32">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J32">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.106278333333333</v>
+        <v>13.061181</v>
       </c>
       <c r="N32">
-        <v>18.318835</v>
+        <v>39.183543</v>
       </c>
       <c r="O32">
-        <v>0.2867375167293102</v>
+        <v>0.5073804293197572</v>
       </c>
       <c r="P32">
-        <v>0.2867375167293102</v>
+        <v>0.5073804293197572</v>
       </c>
       <c r="Q32">
-        <v>389.02632742002</v>
+        <v>6694.165504732294</v>
       </c>
       <c r="R32">
-        <v>3501.23694678018</v>
+        <v>60247.48954259064</v>
       </c>
       <c r="S32">
-        <v>0.07659451399487797</v>
+        <v>0.3924489895203266</v>
       </c>
       <c r="T32">
-        <v>0.07659451399487799</v>
+        <v>0.3924489895203266</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H33">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I33">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J33">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>21.681841</v>
       </c>
       <c r="O33">
-        <v>0.3393773264762603</v>
+        <v>0.2807541368840157</v>
       </c>
       <c r="P33">
-        <v>0.3393773264762603</v>
+        <v>0.2807541368840156</v>
       </c>
       <c r="Q33">
-        <v>460.444508394492</v>
+        <v>3704.152840423091</v>
       </c>
       <c r="R33">
-        <v>4144.000575550428</v>
+        <v>33337.37556380781</v>
       </c>
       <c r="S33">
-        <v>0.0906558781663364</v>
+        <v>0.217157917327445</v>
       </c>
       <c r="T33">
-        <v>0.09065587816633641</v>
+        <v>0.217157917327445</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H34">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I34">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J34">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.530011666666667</v>
+        <v>0.7321823333333333</v>
       </c>
       <c r="N34">
-        <v>4.590035</v>
+        <v>2.196547</v>
       </c>
       <c r="O34">
-        <v>0.07184601191072575</v>
+        <v>0.02844267961886511</v>
       </c>
       <c r="P34">
-        <v>0.07184601191072575</v>
+        <v>0.02844267961886511</v>
       </c>
       <c r="Q34">
-        <v>97.47587435442001</v>
+        <v>375.260837360297</v>
       </c>
       <c r="R34">
-        <v>877.2828691897802</v>
+        <v>3377.347536242673</v>
       </c>
       <c r="S34">
-        <v>0.01919180450309639</v>
+        <v>0.02199986485611841</v>
       </c>
       <c r="T34">
-        <v>0.01919180450309639</v>
+        <v>0.02199986485611841</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H35">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I35">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J35">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.981182666666666</v>
+        <v>2.708231</v>
       </c>
       <c r="N35">
-        <v>14.943548</v>
+        <v>8.124693000000001</v>
       </c>
       <c r="O35">
-        <v>0.2339054773213062</v>
+        <v>0.1052051424352113</v>
       </c>
       <c r="P35">
-        <v>0.2339054773213062</v>
+        <v>0.1052051424352113</v>
       </c>
       <c r="Q35">
-        <v>317.347342069776</v>
+        <v>1388.032716110943</v>
       </c>
       <c r="R35">
-        <v>2856.126078627984</v>
+        <v>12492.29444499849</v>
       </c>
       <c r="S35">
-        <v>0.06248180063956746</v>
+        <v>0.08137415133728135</v>
       </c>
       <c r="T35">
-        <v>0.06248180063956747</v>
+        <v>0.08137415133728133</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H36">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I36">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J36">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.788405</v>
+        <v>1.193984</v>
       </c>
       <c r="N36">
-        <v>2.365215</v>
+        <v>3.581952</v>
       </c>
       <c r="O36">
-        <v>0.03702177980373291</v>
+        <v>0.04638203195568005</v>
       </c>
       <c r="P36">
-        <v>0.03702177980373291</v>
+        <v>0.04638203195568005</v>
       </c>
       <c r="Q36">
-        <v>50.22868020858</v>
+        <v>611.9451607019521</v>
       </c>
       <c r="R36">
-        <v>452.0581218772201</v>
+        <v>5507.506446317569</v>
       </c>
       <c r="S36">
-        <v>0.009889411276339096</v>
+        <v>0.03587560836217167</v>
       </c>
       <c r="T36">
-        <v>0.0098894112763391</v>
+        <v>0.03587560836217166</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H37">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I37">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J37">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.6625496666666666</v>
+        <v>0.8195236666666667</v>
       </c>
       <c r="N37">
-        <v>1.987649</v>
+        <v>2.458571</v>
       </c>
       <c r="O37">
-        <v>0.0311118877586646</v>
+        <v>0.03183557978647068</v>
       </c>
       <c r="P37">
-        <v>0.0311118877586646</v>
+        <v>0.03183557978647068</v>
       </c>
       <c r="Q37">
-        <v>42.210533075388</v>
+        <v>420.0253453123211</v>
       </c>
       <c r="R37">
-        <v>379.894797678492</v>
+        <v>3780.228107810889</v>
       </c>
       <c r="S37">
-        <v>0.008310736416775695</v>
+        <v>0.02462420778575278</v>
       </c>
       <c r="T37">
-        <v>0.008310736416775696</v>
+        <v>0.02462420778575278</v>
       </c>
     </row>
   </sheetData>
